--- a/testdata/excel_test_case20241022.xlsx
+++ b/testdata/excel_test_case20241022.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,11 +195,6 @@
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00008000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -673,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,9 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,7 +1288,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1465,11 +1457,7 @@
           <t>恢复用户释放成无效状态的数据</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>/test-api/policylibrary/policy/crawlData/back/${variable2}</t>
-        </is>
-      </c>
+      <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>get</t>
@@ -1480,7 +1468,7 @@
           <t>"code":200</t>
         </is>
       </c>
-      <c r="I4" s="8" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
